--- a/Upload/brs_internship_proj1.xlsx
+++ b/Upload/brs_internship_proj1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTECH_CSEcore\Projects\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E90990-92F4-432B-8365-0A05ECE78868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AA74A-7870-48CD-9FC2-8992064831DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="456">
   <si>
     <t>Project Name</t>
   </si>
@@ -1403,18 +1403,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1429,9 +1423,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="34" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="54" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2071,7 +2064,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
@@ -2118,8 +2111,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -2137,13 +2130,13 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -2166,7 +2159,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2184,13 +2177,13 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -2213,7 +2206,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2231,13 +2224,13 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -2260,7 +2253,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2278,13 +2271,13 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -2307,7 +2300,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2325,13 +2318,13 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -2354,7 +2347,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -2372,13 +2365,13 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -2401,7 +2394,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2419,13 +2412,13 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -2448,7 +2441,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2466,13 +2459,13 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -2495,7 +2488,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2513,13 +2506,13 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -2542,7 +2535,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2560,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -2589,7 +2582,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2607,13 +2600,13 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -2636,7 +2629,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2654,13 +2647,13 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -2683,7 +2676,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2701,13 +2694,13 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2730,7 +2723,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2748,13 +2741,13 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -2777,7 +2770,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2795,13 +2788,13 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -2824,7 +2817,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2842,13 +2835,13 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -2871,7 +2864,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2889,13 +2882,13 @@
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
@@ -2918,7 +2911,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -2936,13 +2929,13 @@
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -2965,7 +2958,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -2983,13 +2976,13 @@
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -3012,7 +3005,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3030,13 +3023,13 @@
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
@@ -3059,7 +3052,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -3077,13 +3070,13 @@
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
@@ -3106,7 +3099,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -3124,13 +3117,13 @@
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -3153,7 +3146,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -3171,13 +3164,13 @@
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -3200,7 +3193,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -3218,13 +3211,13 @@
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -3247,7 +3240,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -3265,13 +3258,13 @@
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -3294,7 +3287,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -3312,13 +3305,13 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
@@ -3341,7 +3334,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -3359,13 +3352,13 @@
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -3388,7 +3381,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -3406,13 +3399,13 @@
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
@@ -3435,7 +3428,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -3453,13 +3446,13 @@
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
@@ -3482,7 +3475,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -3500,13 +3493,13 @@
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
@@ -3529,7 +3522,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -3547,13 +3540,13 @@
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
         <v>20</v>
@@ -3576,7 +3569,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -3594,13 +3587,13 @@
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J39" t="s">
         <v>20</v>
@@ -3623,7 +3616,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3641,13 +3634,13 @@
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J40" t="s">
         <v>20</v>
@@ -3670,7 +3663,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -3688,13 +3681,13 @@
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J41" t="s">
         <v>20</v>
@@ -3717,7 +3710,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -3735,13 +3728,13 @@
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
@@ -3764,7 +3757,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3782,13 +3775,13 @@
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
@@ -3811,7 +3804,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3829,13 +3822,13 @@
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
@@ -3858,7 +3851,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3876,13 +3869,13 @@
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>
@@ -3905,7 +3898,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3923,13 +3916,13 @@
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
@@ -3952,7 +3945,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -3970,13 +3963,13 @@
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J47" t="s">
         <v>20</v>
@@ -3999,7 +3992,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -4017,13 +4010,13 @@
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J48" t="s">
         <v>20</v>
@@ -4046,7 +4039,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -4064,13 +4057,13 @@
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
@@ -4093,7 +4086,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -4111,13 +4104,13 @@
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J50" t="s">
         <v>20</v>
@@ -4140,7 +4133,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -4158,13 +4151,13 @@
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J51" t="s">
         <v>20</v>
@@ -4187,7 +4180,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -4205,13 +4198,13 @@
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J52" t="s">
         <v>20</v>
@@ -4234,7 +4227,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -4252,13 +4245,13 @@
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J53" t="s">
         <v>20</v>
@@ -4281,7 +4274,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -4299,13 +4292,13 @@
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J54" t="s">
         <v>20</v>
@@ -4328,7 +4321,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -4346,13 +4339,13 @@
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
         <v>20</v>
@@ -4375,7 +4368,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -4393,13 +4386,13 @@
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I56" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J56" t="s">
         <v>20</v>
@@ -4422,7 +4415,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -4440,13 +4433,13 @@
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
@@ -4469,7 +4462,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -4487,13 +4480,13 @@
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
@@ -4516,7 +4509,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -4534,13 +4527,13 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
@@ -4563,7 +4556,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -4581,13 +4574,13 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
@@ -4610,7 +4603,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -4628,13 +4621,13 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J61" t="s">
         <v>20</v>
@@ -4657,7 +4650,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -4675,13 +4668,13 @@
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J62" t="s">
         <v>20</v>
@@ -4704,7 +4697,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -4722,13 +4715,13 @@
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J63" t="s">
         <v>20</v>
@@ -4751,7 +4744,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -4769,13 +4762,13 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H64" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J64" t="s">
         <v>20</v>
@@ -4798,7 +4791,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -4816,13 +4809,13 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J65" t="s">
         <v>20</v>
@@ -4845,7 +4838,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -4863,13 +4856,13 @@
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J66" t="s">
         <v>20</v>
@@ -4892,7 +4885,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -4910,13 +4903,13 @@
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J67" t="s">
         <v>20</v>
@@ -4939,7 +4932,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -4957,13 +4950,13 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I68" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J68" t="s">
         <v>20</v>
@@ -4986,7 +4979,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -5004,13 +4997,13 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I69" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J69" t="s">
         <v>20</v>
@@ -5033,7 +5026,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -5051,13 +5044,13 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J70" t="s">
         <v>20</v>
@@ -5080,7 +5073,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -5098,13 +5091,13 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I71" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J71" t="s">
         <v>20</v>
@@ -5127,7 +5120,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -5145,13 +5138,13 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J72" t="s">
         <v>20</v>
@@ -5174,7 +5167,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -5192,13 +5185,13 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J73" t="s">
         <v>20</v>
@@ -5268,7 +5261,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -5286,13 +5279,13 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J75" t="s">
         <v>20</v>
@@ -5315,7 +5308,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -5333,13 +5326,13 @@
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I76" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J76" t="s">
         <v>20</v>
@@ -5362,7 +5355,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -5380,13 +5373,13 @@
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J77" t="s">
         <v>20</v>
@@ -5409,7 +5402,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -5427,13 +5420,13 @@
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H78" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J78" t="s">
         <v>20</v>
@@ -5456,7 +5449,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -5474,13 +5467,13 @@
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H79" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I79" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J79" t="s">
         <v>20</v>
@@ -5503,7 +5496,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -5521,13 +5514,13 @@
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I80" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J80" t="s">
         <v>20</v>
@@ -5550,7 +5543,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -5568,13 +5561,13 @@
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J81" t="s">
         <v>20</v>
@@ -5597,7 +5590,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -5615,13 +5608,13 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="H82" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J82" t="s">
         <v>20</v>
@@ -5644,7 +5637,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -5662,13 +5655,13 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="H83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I83" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J83" t="s">
         <v>20</v>
@@ -5691,7 +5684,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -5709,13 +5702,13 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H84" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I84" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J84" t="s">
         <v>20</v>
@@ -5738,7 +5731,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -5756,13 +5749,13 @@
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H85" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I85" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J85" t="s">
         <v>20</v>
@@ -5785,7 +5778,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -5803,13 +5796,13 @@
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H86" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I86" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -5832,7 +5825,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -5850,13 +5843,13 @@
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J87" t="s">
         <v>20</v>
@@ -5879,7 +5872,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -5897,13 +5890,13 @@
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J88" t="s">
         <v>20</v>
@@ -5926,7 +5919,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -5944,13 +5937,13 @@
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J89" t="s">
         <v>20</v>
@@ -5973,7 +5966,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5991,13 +5984,13 @@
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H90" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I90" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J90" t="s">
         <v>20</v>
@@ -6020,7 +6013,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -6038,13 +6031,13 @@
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I91" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J91" t="s">
         <v>20</v>
@@ -6067,7 +6060,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -6085,13 +6078,13 @@
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H92" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J92" t="s">
         <v>20</v>
@@ -6114,7 +6107,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -6132,13 +6125,13 @@
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J93" t="s">
         <v>20</v>
@@ -6161,7 +6154,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -6179,13 +6172,13 @@
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I94" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J94" t="s">
         <v>20</v>
@@ -6208,7 +6201,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -6226,13 +6219,13 @@
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H95" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I95" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J95" t="s">
         <v>20</v>
@@ -6255,7 +6248,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -6273,13 +6266,13 @@
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J96" t="s">
         <v>20</v>
@@ -6302,7 +6295,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -6320,13 +6313,13 @@
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H97" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I97" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
@@ -6349,7 +6342,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -6367,13 +6360,13 @@
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H98" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J98" t="s">
         <v>20</v>
@@ -6396,7 +6389,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -6414,13 +6407,13 @@
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J99" t="s">
         <v>20</v>
@@ -6443,7 +6436,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -6461,13 +6454,13 @@
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H100" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J100" t="s">
         <v>20</v>
@@ -6490,7 +6483,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -6508,13 +6501,13 @@
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H101" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I101" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J101" t="s">
         <v>20</v>
@@ -6537,7 +6530,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -6555,13 +6548,13 @@
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I102" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J102" t="s">
         <v>20</v>
@@ -6584,7 +6577,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -6602,13 +6595,13 @@
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H103" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I103" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J103" t="s">
         <v>20</v>
@@ -6631,7 +6624,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -6649,13 +6642,13 @@
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H104" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I104" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J104" t="s">
         <v>20</v>
@@ -6678,7 +6671,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -6696,13 +6689,13 @@
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H105" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I105" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J105" t="s">
         <v>20</v>
@@ -6725,7 +6718,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -6743,13 +6736,13 @@
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H106" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I106" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J106" t="s">
         <v>20</v>
@@ -6772,7 +6765,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -6790,13 +6783,13 @@
         <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I107" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J107" t="s">
         <v>20</v>
@@ -6819,7 +6812,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -6837,13 +6830,13 @@
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H108" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I108" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J108" t="s">
         <v>20</v>
@@ -6866,7 +6859,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -6884,13 +6877,13 @@
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H109" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I109" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J109" t="s">
         <v>20</v>
@@ -6913,7 +6906,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -6931,13 +6924,13 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H110" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I110" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J110" t="s">
         <v>20</v>
@@ -6960,7 +6953,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -6978,13 +6971,13 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H111" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J111" t="s">
         <v>20</v>
@@ -7007,7 +7000,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -7025,13 +7018,13 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I112" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J112" t="s">
         <v>20</v>
@@ -7054,7 +7047,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -7072,13 +7065,13 @@
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H113" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I113" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J113" t="s">
         <v>20</v>
@@ -7101,7 +7094,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -7119,13 +7112,13 @@
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H114" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I114" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J114" t="s">
         <v>20</v>
@@ -7148,7 +7141,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -7166,13 +7159,13 @@
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I115" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J115" t="s">
         <v>20</v>
@@ -7195,7 +7188,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -7213,13 +7206,13 @@
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H116" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I116" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J116" t="s">
         <v>20</v>
@@ -7242,7 +7235,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -7260,13 +7253,13 @@
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H117" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I117" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J117" t="s">
         <v>20</v>
@@ -7289,7 +7282,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -7307,13 +7300,13 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H118" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I118" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J118" t="s">
         <v>20</v>
@@ -7336,7 +7329,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -7354,13 +7347,13 @@
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H119" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I119" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J119" t="s">
         <v>20</v>
@@ -7383,7 +7376,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -7401,13 +7394,13 @@
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H120" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I120" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J120" t="s">
         <v>20</v>
@@ -7430,7 +7423,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -7448,13 +7441,13 @@
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H121" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I121" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J121" t="s">
         <v>20</v>
@@ -7477,7 +7470,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -7495,13 +7488,13 @@
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H122" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I122" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J122" t="s">
         <v>20</v>
@@ -7524,7 +7517,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
@@ -7542,13 +7535,13 @@
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H123" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I123" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J123" t="s">
         <v>20</v>
@@ -7571,7 +7564,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -7589,13 +7582,13 @@
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H124" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I124" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J124" t="s">
         <v>20</v>
@@ -7618,7 +7611,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -7636,13 +7629,13 @@
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H125" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I125" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J125" t="s">
         <v>20</v>
@@ -7665,7 +7658,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
@@ -7683,13 +7676,13 @@
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H126" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I126" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J126" t="s">
         <v>20</v>
@@ -7712,7 +7705,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -7730,13 +7723,13 @@
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H127" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I127" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J127" t="s">
         <v>20</v>
@@ -7759,7 +7752,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -7777,13 +7770,13 @@
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H128" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I128" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J128" t="s">
         <v>20</v>
@@ -7806,7 +7799,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -7824,13 +7817,13 @@
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H129" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I129" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="J129" t="s">
         <v>20</v>
@@ -7853,7 +7846,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -7871,13 +7864,13 @@
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H130" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I130" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J130" t="s">
         <v>20</v>
@@ -7900,7 +7893,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
@@ -7918,13 +7911,13 @@
         <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H131" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I131" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="J131" t="s">
         <v>20</v>
@@ -7947,7 +7940,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
@@ -7965,13 +7958,13 @@
         <v>19</v>
       </c>
       <c r="G132" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H132" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I132" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J132" t="s">
         <v>20</v>
@@ -7994,7 +7987,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
@@ -8012,13 +8005,13 @@
         <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H133" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I133" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J133" t="s">
         <v>20</v>
@@ -8041,7 +8034,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
@@ -8059,13 +8052,13 @@
         <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H134" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="I134" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J134" t="s">
         <v>20</v>
@@ -8088,7 +8081,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
@@ -8106,13 +8099,13 @@
         <v>19</v>
       </c>
       <c r="G135" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H135" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I135" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J135" t="s">
         <v>20</v>
@@ -8135,7 +8128,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
@@ -8153,13 +8146,13 @@
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H136" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="I136" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J136" t="s">
         <v>20</v>
@@ -8182,7 +8175,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
@@ -8200,13 +8193,13 @@
         <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H137" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="I137" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="J137" t="s">
         <v>20</v>
@@ -8229,7 +8222,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
@@ -8247,13 +8240,13 @@
         <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H138" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I138" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J138" t="s">
         <v>20</v>
@@ -8276,7 +8269,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
@@ -8294,13 +8287,13 @@
         <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H139" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="I139" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="J139" t="s">
         <v>20</v>
@@ -8323,7 +8316,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
@@ -8341,13 +8334,13 @@
         <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H140" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I140" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="J140" t="s">
         <v>20</v>
@@ -8370,7 +8363,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -8388,13 +8381,13 @@
         <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H141" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="I141" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="J141" t="s">
         <v>20</v>
@@ -8417,7 +8410,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
@@ -8435,13 +8428,13 @@
         <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H142" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I142" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J142" t="s">
         <v>20</v>
@@ -8464,7 +8457,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
@@ -8482,13 +8475,13 @@
         <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H143" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I143" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J143" t="s">
         <v>20</v>
@@ -8511,7 +8504,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
@@ -8529,13 +8522,13 @@
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H144" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I144" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J144" t="s">
         <v>20</v>
@@ -8558,7 +8551,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
@@ -8576,13 +8569,13 @@
         <v>19</v>
       </c>
       <c r="G145" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H145" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="I145" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J145" t="s">
         <v>20</v>
@@ -8605,7 +8598,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
@@ -8623,13 +8616,13 @@
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H146" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="I146" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J146" t="s">
         <v>20</v>
@@ -8652,7 +8645,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
@@ -8670,13 +8663,13 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H147" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I147" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J147" t="s">
         <v>20</v>
@@ -8694,107 +8687,13 @@
         <v>20</v>
       </c>
       <c r="O147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>450</v>
-      </c>
-      <c r="B148" t="s">
-        <v>15</v>
-      </c>
-      <c r="C148" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>451</v>
-      </c>
-      <c r="H148" t="s">
-        <v>450</v>
-      </c>
-      <c r="I148" t="s">
-        <v>452</v>
-      </c>
-      <c r="J148" t="s">
-        <v>20</v>
-      </c>
-      <c r="K148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" t="s">
-        <v>20</v>
-      </c>
-      <c r="M148" t="s">
-        <v>20</v>
-      </c>
-      <c r="N148" t="s">
-        <v>20</v>
-      </c>
-      <c r="O148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>453</v>
-      </c>
-      <c r="B149" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>454</v>
-      </c>
-      <c r="H149" t="s">
-        <v>453</v>
-      </c>
-      <c r="I149" t="s">
-        <v>455</v>
-      </c>
-      <c r="J149" t="s">
-        <v>20</v>
-      </c>
-      <c r="K149" t="s">
-        <v>20</v>
-      </c>
-      <c r="L149" t="s">
-        <v>20</v>
-      </c>
-      <c r="M149" t="s">
-        <v>20</v>
-      </c>
-      <c r="N149" t="s">
-        <v>20</v>
-      </c>
-      <c r="O149" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O1 A2:O149" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:O1 A2:O7 A8:O128 A129:O147" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>